--- a/All Traffic Data_1996-2022_class1.xlsx
+++ b/All Traffic Data_1996-2022_class1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuxi\Desktop\Research\2023.03.22 (FRA 2023)\Traffic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuxi\Desktop\Research\2023.03.22 (FRA 2023)\Shiny plots\FRA_Visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48A550C-6770-4839-9F0F-7A03EF49C08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BBD85-FB14-46CE-A32F-CD8B39813CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13866" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="9" r:id="rId1"/>
@@ -8735,7 +8735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3CF1C0-974A-4875-91CF-440ED9584AE4}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -11861,7 +11861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45722899-D95A-4A2F-A91F-3AF0C9F68B10}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/All Traffic Data_1996-2022_class1.xlsx
+++ b/All Traffic Data_1996-2022_class1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuxi\Desktop\Research\2023.03.22 (FRA 2023)\Shiny plots\FRA_Visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BBD85-FB14-46CE-A32F-CD8B39813CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBBF4D9-6B0B-4E79-AD8E-CFE3BD938B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13866" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="1228">
   <si>
     <t/>
   </si>
@@ -3713,6 +3713,9 @@
   </si>
   <si>
     <t>10.494154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -4043,7 +4046,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8733,10 +8736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3CF1C0-974A-4875-91CF-440ED9584AE4}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10287,6 +10290,11 @@
       </c>
       <c r="AB18" t="s">
         <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.5">
+      <c r="G26" t="s">
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
@@ -13425,7 +13433,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -14987,8 +14995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58744269-E2D1-4EDF-87FB-ADE3A3C5CEF8}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
